--- a/CP037/Default.xlsx
+++ b/CP037/Default.xlsx
@@ -32,9 +32,6 @@
     <t>e_NumDocumento</t>
   </si>
   <si>
-    <t>rdiazc</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -56,21 +53,21 @@
     <t>e_DocContactoAsociado</t>
   </si>
   <si>
-    <t>RUC</t>
+    <t>Suspención Temporal APC</t>
   </si>
   <si>
     <t>e_Motivo</t>
   </si>
   <si>
-    <t>Pedido de Cliente</t>
-  </si>
-  <si>
     <t>DATA LOGICA</t>
   </si>
   <si>
     <t>e_Fecha_Reanudacion</t>
   </si>
   <si>
+    <t>15/06/2021</t>
+  </si>
+  <si>
     <t>Inicio</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
     <t>UAT4</t>
   </si>
   <si>
+    <t>ariverar</t>
+  </si>
+  <si>
     <t>Pruebas QA</t>
   </si>
   <si>
@@ -95,7 +95,7 @@
     <t>e_Estado</t>
   </si>
   <si>
-    <t>15/04/2021</t>
+    <t>CE</t>
   </si>
   <si>
     <t>Activo</t>
@@ -303,13 +303,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -635,21 +635,21 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.98828125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5390625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,19 +661,19 @@
         <v>24</v>
       </c>
       <c t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>5</v>
       </c>
       <c t="s">
         <v>18</v>
-      </c>
-      <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>19</v>
       </c>
       <c t="s">
         <v>1</v>
@@ -687,33 +687,33 @@
     </row>
     <row ht="12.75" customHeight="1">
       <c s="1">
-        <v>958064071</v>
+        <v>600003246</v>
       </c>
       <c s="1" t="s">
         <v>26</v>
       </c>
       <c s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c s="1" t="s">
         <v>22</v>
       </c>
+      <c s="5" t="s">
+        <v>15</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
       <c s="6" t="s">
-        <v>25</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>15</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -747,13 +747,13 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>8</v>
       </c>
       <c t="s">
         <v>23</v>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c t="s">
+        <v>4</v>
       </c>
     </row>
     <row>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c s="1" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
         <v>21</v>
       </c>
       <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c s="1" t="s">
         <v>0</v>
@@ -806,12 +806,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
@@ -820,24 +820,24 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
         <v>10</v>
       </c>
       <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c s="1">
-        <v>20547765860</v>
+        <v>1254521581</v>
       </c>
       <c s="1"/>
       <c s="3"/>
@@ -867,7 +867,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row>
